--- a/src/main/resources/admin_loader.xlsx
+++ b/src/main/resources/admin_loader.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
